--- a/Filtered_By_Region/CARAGA/CARAGA_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS376"/>
+  <dimension ref="A1:AU376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -773,7 +783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -887,7 +902,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1039,7 +1059,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1191,7 +1216,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1343,7 +1373,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1495,7 +1530,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1647,7 +1687,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1799,7 +1844,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1951,7 +2001,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2103,7 +2158,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2255,7 +2315,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2407,7 +2472,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2559,7 +2629,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2711,7 +2786,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2863,7 +2943,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3015,7 +3100,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3167,7 +3257,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3319,7 +3414,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3471,7 +3571,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3623,7 +3728,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3775,7 +3885,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3927,7 +4042,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4079,7 +4199,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4231,7 +4356,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4383,7 +4513,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4536,7 +4671,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4689,7 +4824,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4852,7 +4987,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5015,7 +5150,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5178,7 +5313,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5292,7 +5427,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5406,7 +5546,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5520,7 +5665,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5634,7 +5784,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5748,7 +5903,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5862,7 +6022,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5976,7 +6141,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6090,7 +6260,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6204,7 +6379,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6318,7 +6498,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6460,7 +6645,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6581,7 +6766,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6702,7 +6887,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6823,7 +7008,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6944,7 +7129,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7065,7 +7250,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7186,7 +7371,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7307,7 +7492,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7428,7 +7613,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7549,7 +7734,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7670,7 +7855,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7791,7 +7976,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7912,7 +8097,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8033,7 +8218,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8154,7 +8339,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8275,7 +8460,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8396,7 +8581,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8517,7 +8702,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8638,7 +8823,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8775,7 +8960,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8912,7 +9097,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9049,7 +9234,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9186,7 +9371,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9323,7 +9508,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9460,7 +9645,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9597,7 +9782,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9734,7 +9919,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9846,7 +10031,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9958,7 +10143,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10070,7 +10255,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10227,7 +10412,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10384,7 +10574,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10541,7 +10736,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10698,7 +10898,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10850,7 +11055,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11002,7 +11207,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11154,7 +11359,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11306,7 +11511,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11458,7 +11663,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11610,7 +11815,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11762,7 +11967,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11874,7 +12079,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11986,7 +12191,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12113,7 +12318,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12240,7 +12445,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12367,7 +12572,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12494,7 +12699,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12621,7 +12826,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12748,7 +12953,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12903,7 +13108,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13058,7 +13263,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13213,7 +13418,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13330,7 +13535,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13447,7 +13652,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13564,7 +13769,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13681,7 +13886,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13798,7 +14003,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13915,7 +14120,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14027,7 +14232,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14139,7 +14344,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14251,7 +14456,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14363,7 +14568,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14475,7 +14680,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14587,7 +14792,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14699,7 +14904,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14811,7 +15016,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14951,7 +15156,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15094,7 +15299,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15237,7 +15442,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15380,7 +15585,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15523,7 +15728,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15666,7 +15871,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15809,7 +16014,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15952,7 +16157,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16095,7 +16300,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16235,7 +16440,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16375,7 +16580,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16518,7 +16723,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16658,7 +16863,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16801,7 +17006,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16941,7 +17146,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17081,7 +17286,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17221,7 +17426,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17364,7 +17569,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17507,7 +17712,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17650,7 +17855,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17790,7 +17995,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17933,7 +18138,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18076,7 +18281,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18219,7 +18424,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18362,7 +18567,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18505,7 +18710,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18617,7 +18822,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18729,7 +18934,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18841,7 +19046,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18953,7 +19158,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19065,7 +19270,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19177,7 +19382,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19289,7 +19494,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19401,7 +19606,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19513,7 +19718,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19625,7 +19830,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19737,7 +19942,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19849,7 +20054,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19961,7 +20166,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20073,7 +20278,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20185,7 +20390,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20297,7 +20502,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20409,7 +20614,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20521,7 +20726,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20633,7 +20838,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20745,7 +20950,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20857,7 +21062,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20969,7 +21174,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21081,7 +21286,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21193,7 +21398,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21305,7 +21510,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21417,7 +21622,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21529,7 +21734,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21641,7 +21846,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21753,7 +21958,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21865,7 +22070,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21977,7 +22182,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22089,7 +22294,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22201,7 +22406,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22320,7 +22525,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22439,7 +22644,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22553,7 +22758,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22672,7 +22877,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22786,7 +22991,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22905,7 +23110,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23019,7 +23224,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23133,7 +23338,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23252,7 +23457,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23366,7 +23571,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23480,7 +23685,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23594,7 +23799,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23713,7 +23918,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23827,7 +24032,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23946,7 +24151,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24065,7 +24270,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24179,7 +24384,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24293,7 +24498,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24407,7 +24612,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24521,7 +24726,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24640,7 +24845,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24759,7 +24964,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24880,7 +25085,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24994,7 +25199,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25113,7 +25318,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25250,7 +25455,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25387,7 +25592,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25524,7 +25729,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AT194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25666,7 +25871,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR195" t="inlineStr">
+      <c r="AT195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25803,7 +26008,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR196" t="inlineStr">
+      <c r="AT196" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25945,7 +26150,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR197" t="inlineStr">
+      <c r="AT197" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26059,7 +26264,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR198" t="inlineStr">
+      <c r="AT198" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26178,7 +26383,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR199" t="inlineStr">
+      <c r="AT199" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26297,7 +26502,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR200" t="inlineStr">
+      <c r="AT200" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26462,7 +26667,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR201" t="inlineStr">
+      <c r="AT201" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26624,7 +26829,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR202" t="inlineStr">
+      <c r="AT202" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26791,7 +26996,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AT203" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26953,7 +27158,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR204" t="inlineStr">
+      <c r="AT204" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27115,7 +27320,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR205" t="inlineStr">
+      <c r="AT205" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27277,7 +27482,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR206" t="inlineStr">
+      <c r="AT206" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27444,7 +27649,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR207" t="inlineStr">
+      <c r="AT207" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27606,7 +27811,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27771,7 +27976,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27933,7 +28138,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28077,7 +28282,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28227,7 +28432,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28371,7 +28576,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28521,7 +28726,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28665,7 +28870,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28815,7 +29020,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28965,7 +29170,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29115,7 +29320,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29229,7 +29434,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29348,7 +29553,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29467,7 +29672,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29586,7 +29791,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29705,7 +29910,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR223" t="inlineStr">
+      <c r="AT223" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29824,7 +30029,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AT224" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29943,7 +30148,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30062,7 +30267,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30181,7 +30386,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AT227" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30300,7 +30505,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30419,7 +30624,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AT229" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30538,7 +30743,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30652,7 +30857,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30786,7 +30991,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30936,7 +31141,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR233" t="inlineStr">
+      <c r="AT233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31086,7 +31291,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR234" t="inlineStr">
+      <c r="AT234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31220,7 +31425,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31354,7 +31559,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31504,7 +31709,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31654,7 +31859,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR238" t="inlineStr">
+      <c r="AT238" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31790,7 +31995,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR239" t="inlineStr">
+      <c r="AT239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31940,7 +32145,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32090,7 +32295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR241" t="inlineStr">
+      <c r="AT241" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32224,7 +32429,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR242" t="inlineStr">
+      <c r="AT242" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32374,7 +32579,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR243" t="inlineStr">
+      <c r="AT243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32524,7 +32729,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32658,7 +32863,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR245" t="inlineStr">
+      <c r="AT245" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32792,7 +32997,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR246" t="inlineStr">
+      <c r="AT246" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32926,7 +33131,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR247" t="inlineStr">
+      <c r="AT247" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33060,7 +33265,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR248" t="inlineStr">
+      <c r="AT248" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33194,7 +33399,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33344,7 +33549,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR250" t="inlineStr">
+      <c r="AT250" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33494,7 +33699,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR251" t="inlineStr">
+      <c r="AT251" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33644,7 +33849,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33794,7 +33999,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR253" t="inlineStr">
+      <c r="AT253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33944,7 +34149,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR254" t="inlineStr">
+      <c r="AT254" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34094,7 +34299,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34228,7 +34433,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR256" t="inlineStr">
+      <c r="AT256" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34362,7 +34567,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR257" t="inlineStr">
+      <c r="AT257" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34512,7 +34717,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR258" t="inlineStr">
+      <c r="AT258" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34651,7 +34856,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR259" t="inlineStr">
+      <c r="AT259" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34765,7 +34970,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR260" t="inlineStr">
+      <c r="AT260" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34904,7 +35109,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR261" t="inlineStr">
+      <c r="AT261" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35013,7 +35218,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR262" t="inlineStr">
+      <c r="AT262" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35122,7 +35327,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR263" t="inlineStr">
+      <c r="AT263" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35231,7 +35436,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR264" t="inlineStr">
+      <c r="AT264" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35340,7 +35545,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR265" t="inlineStr">
+      <c r="AT265" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35449,7 +35654,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR266" t="inlineStr">
+      <c r="AT266" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35560,6 +35765,11 @@
       </c>
       <c r="AR267" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -35667,7 +35877,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR268" t="inlineStr">
+      <c r="AT268" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35776,7 +35986,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR269" t="inlineStr">
+      <c r="AT269" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35885,7 +36095,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR270" t="inlineStr">
+      <c r="AT270" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35994,7 +36204,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR271" t="inlineStr">
+      <c r="AT271" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36105,6 +36315,11 @@
       </c>
       <c r="AR272" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT272" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -36212,7 +36427,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR273" t="inlineStr">
+      <c r="AT273" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36321,7 +36536,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR274" t="inlineStr">
+      <c r="AT274" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36430,7 +36645,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR275" t="inlineStr">
+      <c r="AT275" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36539,7 +36754,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR276" t="inlineStr">
+      <c r="AT276" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36648,7 +36863,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR277" t="inlineStr">
+      <c r="AT277" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36757,7 +36972,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR278" t="inlineStr">
+      <c r="AT278" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36866,7 +37081,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR279" t="inlineStr">
+      <c r="AT279" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36975,7 +37190,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR280" t="inlineStr">
+      <c r="AT280" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37086,6 +37301,11 @@
       </c>
       <c r="AR281" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT281" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -37193,7 +37413,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR282" t="inlineStr">
+      <c r="AT282" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37302,7 +37522,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR283" t="inlineStr">
+      <c r="AT283" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37411,7 +37631,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR284" t="inlineStr">
+      <c r="AT284" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37522,6 +37742,11 @@
       </c>
       <c r="AR285" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT285" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -37629,7 +37854,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR286" t="inlineStr">
+      <c r="AT286" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37738,7 +37963,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR287" t="inlineStr">
+      <c r="AT287" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37849,6 +38074,11 @@
       </c>
       <c r="AR288" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT288" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -37956,7 +38186,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR289" t="inlineStr">
+      <c r="AT289" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38065,7 +38295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR290" t="inlineStr">
+      <c r="AT290" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38176,6 +38406,11 @@
       </c>
       <c r="AR291" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT291" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38285,6 +38520,11 @@
       </c>
       <c r="AR292" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT292" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38394,6 +38634,11 @@
       </c>
       <c r="AR293" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT293" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38501,7 +38746,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR294" t="inlineStr">
+      <c r="AT294" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38612,6 +38857,11 @@
       </c>
       <c r="AR295" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT295" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38721,6 +38971,11 @@
       </c>
       <c r="AR296" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT296" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38830,6 +39085,11 @@
       </c>
       <c r="AR297" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT297" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38937,7 +39197,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR298" t="inlineStr">
+      <c r="AT298" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39046,7 +39306,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR299" t="inlineStr">
+      <c r="AT299" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39155,7 +39415,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR300" t="inlineStr">
+      <c r="AT300" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39264,7 +39524,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR301" t="inlineStr">
+      <c r="AT301" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39373,7 +39633,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR302" t="inlineStr">
+      <c r="AT302" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39482,7 +39742,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR303" t="inlineStr">
+      <c r="AT303" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39591,7 +39851,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR304" t="inlineStr">
+      <c r="AT304" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39700,7 +39960,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR305" t="inlineStr">
+      <c r="AT305" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39809,7 +40069,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR306" t="inlineStr">
+      <c r="AT306" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39918,7 +40178,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR307" t="inlineStr">
+      <c r="AT307" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40027,7 +40287,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR308" t="inlineStr">
+      <c r="AT308" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40141,7 +40401,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR309" t="inlineStr">
+      <c r="AT309" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40255,7 +40515,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR310" t="inlineStr">
+      <c r="AT310" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40371,6 +40631,11 @@
       </c>
       <c r="AR311" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT311" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -40483,7 +40748,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR312" t="inlineStr">
+      <c r="AT312" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40592,7 +40857,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR313" t="inlineStr">
+      <c r="AT313" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40701,7 +40966,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR314" t="inlineStr">
+      <c r="AT314" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40810,7 +41075,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR315" t="inlineStr">
+      <c r="AT315" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40919,7 +41184,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR316" t="inlineStr">
+      <c r="AT316" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41028,7 +41293,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR317" t="inlineStr">
+      <c r="AT317" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41139,6 +41404,11 @@
       </c>
       <c r="AR318" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT318" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41246,7 +41516,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR319" t="inlineStr">
+      <c r="AT319" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41355,7 +41625,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR320" t="inlineStr">
+      <c r="AT320" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41464,7 +41734,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR321" t="inlineStr">
+      <c r="AT321" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41573,7 +41843,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR322" t="inlineStr">
+      <c r="AT322" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41682,7 +41952,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR323" t="inlineStr">
+      <c r="AT323" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41791,7 +42061,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR324" t="inlineStr">
+      <c r="AT324" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41900,7 +42170,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR325" t="inlineStr">
+      <c r="AT325" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42011,6 +42281,11 @@
       </c>
       <c r="AR326" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT326" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42118,7 +42393,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR327" t="inlineStr">
+      <c r="AT327" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42227,7 +42502,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR328" t="inlineStr">
+      <c r="AT328" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42336,7 +42611,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR329" t="inlineStr">
+      <c r="AT329" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42445,7 +42720,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR330" t="inlineStr">
+      <c r="AT330" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42554,7 +42829,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR331" t="inlineStr">
+      <c r="AT331" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42663,7 +42938,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR332" t="inlineStr">
+      <c r="AT332" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42774,6 +43049,11 @@
       </c>
       <c r="AR333" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT333" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42881,7 +43161,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR334" t="inlineStr">
+      <c r="AT334" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42990,7 +43270,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR335" t="inlineStr">
+      <c r="AT335" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43138,7 +43418,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR336" t="inlineStr">
+      <c r="AT336" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43286,7 +43566,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR337" t="inlineStr">
+      <c r="AT337" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43406,6 +43686,11 @@
       </c>
       <c r="AR338" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT338" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43524,6 +43809,11 @@
       </c>
       <c r="AR339" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT339" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43642,6 +43932,11 @@
       </c>
       <c r="AR340" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT340" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43760,6 +44055,11 @@
       </c>
       <c r="AR341" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT341" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43878,6 +44178,11 @@
       </c>
       <c r="AR342" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT342" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43998,6 +44303,11 @@
       </c>
       <c r="AR343" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT343" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44116,6 +44426,11 @@
       </c>
       <c r="AR344" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT344" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44234,6 +44549,11 @@
       </c>
       <c r="AR345" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT345" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44352,6 +44672,11 @@
       </c>
       <c r="AR346" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT346" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44470,6 +44795,11 @@
       </c>
       <c r="AR347" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT347" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44588,6 +44918,11 @@
       </c>
       <c r="AR348" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT348" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44706,6 +45041,11 @@
       </c>
       <c r="AR349" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT349" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44824,6 +45164,11 @@
       </c>
       <c r="AR350" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT350" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44942,6 +45287,11 @@
       </c>
       <c r="AR351" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT351" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45060,6 +45410,11 @@
       </c>
       <c r="AR352" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT352" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45178,6 +45533,11 @@
       </c>
       <c r="AR353" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT353" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45329,6 +45689,11 @@
       </c>
       <c r="AR354" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT354" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45480,6 +45845,11 @@
       </c>
       <c r="AR355" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT355" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45631,6 +46001,11 @@
       </c>
       <c r="AR356" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT356" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45782,6 +46157,11 @@
       </c>
       <c r="AR357" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT357" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45933,6 +46313,11 @@
       </c>
       <c r="AR358" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT358" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46084,6 +46469,11 @@
       </c>
       <c r="AR359" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT359" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46235,6 +46625,11 @@
       </c>
       <c r="AR360" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT360" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46349,6 +46744,11 @@
       </c>
       <c r="AR361" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT361" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46463,6 +46863,11 @@
       </c>
       <c r="AR362" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT362" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46577,6 +46982,11 @@
       </c>
       <c r="AR363" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT363" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46689,7 +47099,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR364" t="inlineStr">
+      <c r="AT364" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -46803,7 +47213,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR365" t="inlineStr">
+      <c r="AT365" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -46917,6 +47327,11 @@
       </c>
       <c r="AR366" t="inlineStr">
         <is>
+          <t>BBM 2025 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT366" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47061,6 +47476,11 @@
       </c>
       <c r="AR367" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT367" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47207,6 +47627,11 @@
       </c>
       <c r="AR368" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT368" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47353,6 +47778,11 @@
       </c>
       <c r="AR369" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT369" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47468,6 +47898,11 @@
       </c>
       <c r="AR370" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT370" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47583,6 +48018,11 @@
       </c>
       <c r="AR371" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT371" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47733,6 +48173,11 @@
       </c>
       <c r="AR372" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT372" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47886,6 +48331,11 @@
       </c>
       <c r="AR373" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT373" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48003,6 +48453,11 @@
       </c>
       <c r="AR374" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT374" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48120,6 +48575,11 @@
       </c>
       <c r="AR375" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT375" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48263,13 +48723,18 @@
       </c>
       <c r="AR376" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT376" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS376" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU376" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
